--- a/reports/corpus_dwi-unigram_bigram-fold-3.xlsx
+++ b/reports/corpus_dwi-unigram_bigram-fold-3.xlsx
@@ -577,85 +577,85 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9966666666666667</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8125</v>
+        <v>0.9270833333333334</v>
       </c>
       <c r="D2" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="F2" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.48</v>
+        <v>0.88</v>
       </c>
       <c r="H2" t="n">
-        <v>0.944</v>
+        <v>0.968</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9052631578947369</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4469026548672566</v>
+        <v>0.6769911504424779</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8529411764705882</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9642857142857143</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9867424242424242</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2173913043478261</v>
+        <v>0.4057971014492754</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4653465346534654</v>
+        <v>0.6089108910891089</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8181818181818182</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8733333333333333</v>
+        <v>0.9933333333333333</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7105263157894737</v>
+        <v>0.9</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8369565217391305</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="U2" t="n">
-        <v>0.90625</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="W2" t="n">
-        <v>0.4394618834080717</v>
+        <v>0.7040358744394619</v>
       </c>
       <c r="X2" t="n">
-        <v>0.4418604651162791</v>
+        <v>0.641860465116279</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.7475862068965518</v>
+        <v>0.8606896551724138</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.6680646454776925</v>
+        <v>0.8188888671560287</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.8618031233143033</v>
+        <v>0.9001717906138731</v>
       </c>
     </row>
     <row r="3">
@@ -668,28 +668,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.9368421052631579</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0.9946236559139785</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9805825242718447</v>
+        <v>0.9745222929936306</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -698,13 +698,13 @@
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4266994266994267</v>
+        <v>0.5924225028702641</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9318181818181818</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -713,37 +713,37 @@
         <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9782608695652174</v>
+        <v>0.9715909090909091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9746835443037974</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="U3" t="n">
         <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8125</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="W3" t="n">
-        <v>0.9514563106796117</v>
+        <v>0.9631901840490797</v>
       </c>
       <c r="X3" t="n">
-        <v>0.9693877551020408</v>
+        <v>0.971830985915493</v>
       </c>
       <c r="Y3" t="n">
         <v>1</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.7475862068965518</v>
+        <v>0.8606896551724138</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.9032869306150572</v>
+        <v>0.9092573640983739</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.7475862068965518</v>
+        <v>0.8606896551724138</v>
       </c>
     </row>
     <row r="4">
@@ -753,85 +753,85 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9983305509181971</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8813559322033898</v>
+        <v>0.9319371727748692</v>
       </c>
       <c r="D4" t="n">
         <v>0.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6</v>
+        <v>0.88</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9711934156378601</v>
+        <v>0.983739837398374</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9502762430939227</v>
+        <v>0.9840425531914894</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6139817629179332</v>
+        <v>0.7989556135770236</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9206349206349206</v>
+        <v>0.9850746268656716</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9818181818181818</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5957690108633504</v>
+        <v>0.7376697641172265</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3488372093023255</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6225165562913908</v>
+        <v>0.7365269461077845</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9323843416370107</v>
+        <v>0.9966555183946488</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8231707317073169</v>
+        <v>0.9344262295081966</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9005847953216375</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9508196721311475</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="W4" t="n">
-        <v>0.6012269938650308</v>
+        <v>0.8134715025906736</v>
       </c>
       <c r="X4" t="n">
-        <v>0.6070287539936102</v>
+        <v>0.7731092436974789</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.8292682926829268</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.7475862068965518</v>
+        <v>0.8606896551724138</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.7393182790461893</v>
+        <v>0.845667308505786</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.74113076253096</v>
+        <v>0.8591247742968021</v>
       </c>
     </row>
     <row r="5">
@@ -841,79 +841,79 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C5" t="n">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H5" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I5" t="n">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="J5" t="n">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="K5" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L5" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M5" t="n">
-        <v>1221</v>
+        <v>871</v>
       </c>
       <c r="N5" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="O5" t="n">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="P5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q5" t="n">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="R5" t="n">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="U5" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="V5" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="W5" t="n">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="X5" t="n">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="Y5" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.7475862068965518</v>
+        <v>0.8606896551724138</v>
       </c>
       <c r="AA5" t="n">
         <v>2900</v>

--- a/reports/corpus_dwi-unigram_bigram-fold-3.xlsx
+++ b/reports/corpus_dwi-unigram_bigram-fold-3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,50 +521,45 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>RBS</t>
+          <t>RP</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>RP</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UH</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>UH</t>
+          <t>VBI</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>VBI</t>
+          <t>VBT</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>VBT</t>
+          <t>WP</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>WP</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>macro avg</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>macro avg</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>weighted avg</t>
         </is>
@@ -625,37 +620,34 @@
         <v>0.9933333333333333</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9</v>
+        <v>0.900523560209424</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="T2" t="n">
-        <v>0.9782608695652174</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.7040358744394619</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7040358744394619</v>
+        <v>0.641860465116279</v>
       </c>
       <c r="X2" t="n">
-        <v>0.641860465116279</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8610344827586207</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.8606896551724138</v>
+        <v>0.8545154944327874</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.8188888671560287</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.9001717906138731</v>
+        <v>0.9002035653024447</v>
       </c>
     </row>
     <row r="3">
@@ -713,37 +705,34 @@
         <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9715909090909091</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="T3" t="n">
-        <v>0.967741935483871</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8095238095238095</v>
+        <v>0.9631901840490797</v>
       </c>
       <c r="W3" t="n">
-        <v>0.9631901840490797</v>
+        <v>0.971830985915493</v>
       </c>
       <c r="X3" t="n">
-        <v>0.971830985915493</v>
+        <v>1</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>0.8610344827586207</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.8606896551724138</v>
+        <v>0.9490373285453387</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.9092573640983739</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.8606896551724138</v>
+        <v>0.8610344827586207</v>
       </c>
     </row>
     <row r="4">
@@ -801,37 +790,34 @@
         <v>0.9966555183946488</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9344262295081966</v>
+        <v>0.9373297002724795</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="T4" t="n">
-        <v>0.972972972972973</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8717948717948718</v>
+        <v>0.8134715025906736</v>
       </c>
       <c r="W4" t="n">
-        <v>0.8134715025906736</v>
+        <v>0.7731092436974789</v>
       </c>
       <c r="X4" t="n">
-        <v>0.7731092436974789</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.8610344827586207</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.8606896551724138</v>
+        <v>0.8825616902131803</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.845667308505786</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.8591247742968021</v>
+        <v>0.8593009849362896</v>
       </c>
     </row>
     <row r="5">
@@ -892,33 +878,30 @@
         <v>176</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="T5" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U5" t="n">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="V5" t="n">
-        <v>21</v>
+        <v>163</v>
       </c>
       <c r="W5" t="n">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="X5" t="n">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="Y5" t="n">
-        <v>22</v>
+        <v>0.8610344827586207</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.8606896551724138</v>
+        <v>2900</v>
       </c>
       <c r="AA5" t="n">
-        <v>2900</v>
-      </c>
-      <c r="AB5" t="n">
         <v>2900</v>
       </c>
     </row>
